--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4542.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4542.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4542</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rishabh Rajendra Pant</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -491,7 +556,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>21/10/2018</t>
@@ -499,7 +563,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -551,7 +615,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,7 +667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -707,7 +771,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -759,7 +823,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -811,7 +875,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -863,7 +927,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -915,7 +979,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -955,7 +1019,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -963,7 +1026,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1015,7 +1078,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1067,7 +1130,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1119,7 +1182,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1171,7 +1234,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1223,7 +1286,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1275,7 +1338,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1327,7 +1390,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1379,7 +1442,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1431,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1483,7 +1546,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1535,7 +1598,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1587,7 +1650,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1639,7 +1702,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1691,7 +1754,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1731,7 +1794,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>12/07/2022</t>
@@ -1739,7 +1801,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1791,7 +1853,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1843,7 +1905,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1895,7 +1957,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1935,7 +1997,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -1943,7 +2004,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1995,7 +2056,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2026,6 +2087,553 @@
       <c r="J31" t="inlineStr">
         <is>
           <t>16</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7.17%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10.08%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.22%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.98%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.71%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.62%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.13%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>47.89%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.90%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4.57%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4542.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4542.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4542.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4542.xlsx
@@ -2101,7 +2101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2144,27 +2144,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>7.17%</t>
-        </is>
-      </c>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2174,13 +2160,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.30%</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2190,13 +2190,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2206,7 +2220,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2214,17 +2228,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.08%</t>
+          <t>10.06%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2236,11 +2250,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2249,12 +2263,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2266,25 +2280,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4398</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.98%</t>
+          <t>10.46%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2296,13 +2310,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15.29%</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2312,7 +2340,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2320,17 +2348,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.71%</t>
+          <t>1.51%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2342,7 +2370,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -2358,27 +2386,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.62%</t>
-        </is>
-      </c>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2388,7 +2402,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2396,15 +2410,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.17%</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2414,7 +2432,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -2430,27 +2448,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2460,7 +2464,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2468,17 +2472,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>21.13%</t>
+          <t>10.08%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2490,15 +2494,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.22%</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2508,23 +2524,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10.98%</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2534,37 +2554,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>47.89%</t>
-        </is>
-      </c>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4669</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2572,17 +2578,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>23.71%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2594,7 +2600,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -2610,7 +2616,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2618,20 +2624,272 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.62%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.13%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>47.89%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4.90%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>4.57%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
